--- a/src/WebScrapping/tabeladados.xlsx
+++ b/src/WebScrapping/tabeladados.xlsx
@@ -22,7 +22,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <b/>
     </font>
